--- a/data_year/zb/国民经济核算/国内生产总值.xlsx
+++ b/data_year/zb/国民经济核算/国内生产总值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,326 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7942.0691685654</v>
+        <v>30807.9326754466</v>
       </c>
       <c r="C2" t="n">
-        <v>100280.139253433</v>
+        <v>412119.255796083</v>
       </c>
       <c r="D2" t="n">
-        <v>99066.0670910177</v>
+        <v>410354.11014066</v>
       </c>
       <c r="E2" t="n">
-        <v>14717.3555691274</v>
+        <v>38430.8498088599</v>
       </c>
       <c r="F2" t="n">
-        <v>39899.1160069868</v>
+        <v>182061.890339732</v>
       </c>
       <c r="G2" t="n">
-        <v>45663.6676773186</v>
+        <v>191626.515647491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8716.6822381765</v>
+        <v>36277.1363217578</v>
       </c>
       <c r="C3" t="n">
-        <v>110863.123046248</v>
+        <v>487940.180525355</v>
       </c>
       <c r="D3" t="n">
-        <v>109276.152448745</v>
+        <v>483392.794744631</v>
       </c>
       <c r="E3" t="n">
-        <v>15502.5019652288</v>
+        <v>44781.4604971136</v>
       </c>
       <c r="F3" t="n">
-        <v>45701.245242961</v>
+        <v>216123.620990973</v>
       </c>
       <c r="G3" t="n">
-        <v>49659.3758380584</v>
+        <v>227035.099037269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9506.203119985001</v>
+        <v>39771.3728109773</v>
       </c>
       <c r="C4" t="n">
-        <v>121717.424748288</v>
+        <v>538579.953468974</v>
       </c>
       <c r="D4" t="n">
-        <v>120480.414838355</v>
+        <v>537329.007798286</v>
       </c>
       <c r="E4" t="n">
-        <v>16190.2282973165</v>
+        <v>49084.6359218683</v>
       </c>
       <c r="F4" t="n">
-        <v>51423.1103635183</v>
+        <v>244856.249002227</v>
       </c>
       <c r="G4" t="n">
-        <v>54104.0860874531</v>
+        <v>244639.068544879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10666.1001954301</v>
+        <v>43496.6131824886</v>
       </c>
       <c r="C5" t="n">
-        <v>137422.034917922</v>
+        <v>592963.229548957</v>
       </c>
       <c r="D5" t="n">
-        <v>136576.250624858</v>
+        <v>588141.211190155</v>
       </c>
       <c r="E5" t="n">
-        <v>16970.2456702131</v>
+        <v>53028.0728537458</v>
       </c>
       <c r="F5" t="n">
-        <v>57756.0299220286</v>
+        <v>277983.542768454</v>
       </c>
       <c r="G5" t="n">
-        <v>62695.7593256802</v>
+        <v>261951.613926757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12486.9441125584</v>
+        <v>46911.718728133</v>
       </c>
       <c r="C6" t="n">
-        <v>161840.160906841</v>
+        <v>643563.104543766</v>
       </c>
       <c r="D6" t="n">
-        <v>161415.427771907</v>
+        <v>644380.151914331</v>
       </c>
       <c r="E6" t="n">
-        <v>20904.3241772054</v>
+        <v>55626.3215706793</v>
       </c>
       <c r="F6" t="n">
-        <v>66650.8603118641</v>
+        <v>310653.963237863</v>
       </c>
       <c r="G6" t="n">
-        <v>74284.9764177714</v>
+        <v>277282.819735223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14368.0317182871</v>
+        <v>49922.3267613586</v>
       </c>
       <c r="C7" t="n">
-        <v>187318.903117653</v>
+        <v>688858.218049283</v>
       </c>
       <c r="D7" t="n">
-        <v>185998.908708895</v>
+        <v>685571.21848939</v>
       </c>
       <c r="E7" t="n">
-        <v>21806.7218695091</v>
+        <v>57774.6412645268</v>
       </c>
       <c r="F7" t="n">
-        <v>77430.00302097401</v>
+        <v>349744.650043795</v>
       </c>
       <c r="G7" t="n">
-        <v>88082.1782271696</v>
+        <v>281338.926740961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16737.9959738739</v>
+        <v>53782.9973903485</v>
       </c>
       <c r="C8" t="n">
-        <v>219438.474816681</v>
+        <v>746395.059483517</v>
       </c>
       <c r="D8" t="n">
-        <v>219028.454456363</v>
+        <v>742694.053654712</v>
       </c>
       <c r="E8" t="n">
-        <v>23317.0068397922</v>
+        <v>60139.196087384</v>
       </c>
       <c r="F8" t="n">
-        <v>91762.24009740639</v>
+        <v>390828.059989709</v>
       </c>
       <c r="G8" t="n">
-        <v>104359.227879483</v>
+        <v>295427.803406424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20494.3772573537</v>
+        <v>59592.2510902632</v>
       </c>
       <c r="C9" t="n">
-        <v>270092.323718075</v>
+        <v>832035.948559918</v>
       </c>
       <c r="D9" t="n">
-        <v>270704.017016484</v>
+        <v>830945.699737374</v>
       </c>
       <c r="E9" t="n">
-        <v>27674.1071835023</v>
+        <v>62099.5439820457</v>
       </c>
       <c r="F9" t="n">
-        <v>115787.674394143</v>
+        <v>438355.94736846</v>
       </c>
       <c r="G9" t="n">
-        <v>126630.54214043</v>
+        <v>331580.457209411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24100.2081884314</v>
+        <v>65533.7426977278</v>
       </c>
       <c r="C10" t="n">
-        <v>319244.612778466</v>
+        <v>919281.129066646</v>
       </c>
       <c r="D10" t="n">
-        <v>321229.524476379</v>
+        <v>915243.45391614</v>
       </c>
       <c r="E10" t="n">
-        <v>32464.1374252993</v>
+        <v>64745.1561040139</v>
       </c>
       <c r="F10" t="n">
-        <v>136827.538031168</v>
+        <v>489700.762579774</v>
       </c>
       <c r="G10" t="n">
-        <v>149952.937321999</v>
+        <v>364835.210382857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26179.5399647566</v>
+        <v>70077.69179019659</v>
       </c>
       <c r="C11" t="n">
-        <v>348517.743734819</v>
+        <v>986515.202291903</v>
       </c>
       <c r="D11" t="n">
-        <v>347934.883158655</v>
+        <v>983751.20256033</v>
       </c>
       <c r="E11" t="n">
-        <v>33583.8163367571</v>
+        <v>70473.5905931704</v>
       </c>
       <c r="F11" t="n">
-        <v>154765.114591442</v>
+        <v>535370.99070492</v>
       </c>
       <c r="G11" t="n">
-        <v>160168.81280662</v>
+        <v>380670.620993813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30807.9326754466</v>
+        <v>71828.1484112169</v>
       </c>
       <c r="C12" t="n">
-        <v>412119.255796083</v>
+        <v>1013567.00223068</v>
       </c>
       <c r="D12" t="n">
-        <v>410354.11014066</v>
+        <v>1005451.31315167</v>
       </c>
       <c r="E12" t="n">
-        <v>38430.8498088599</v>
+        <v>78030.9003457103</v>
       </c>
       <c r="F12" t="n">
-        <v>182061.890339732</v>
+        <v>551973.748218789</v>
       </c>
       <c r="G12" t="n">
-        <v>191626.515647491</v>
+        <v>383562.353666183</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36277.1363217578</v>
+        <v>81370</v>
       </c>
       <c r="C13" t="n">
-        <v>487940.180525355</v>
+        <v>1149237</v>
       </c>
       <c r="D13" t="n">
-        <v>483392.794744631</v>
+        <v>1141230.8</v>
       </c>
       <c r="E13" t="n">
-        <v>44781.4604971136</v>
+        <v>83216.5</v>
       </c>
       <c r="F13" t="n">
-        <v>216123.620990973</v>
+        <v>614476.4</v>
       </c>
       <c r="G13" t="n">
-        <v>227035.099037269</v>
+        <v>451544.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39771.3728109773</v>
+        <v>85698</v>
       </c>
       <c r="C14" t="n">
-        <v>538579.953468974</v>
+        <v>1210207.2</v>
       </c>
       <c r="D14" t="n">
-        <v>537329.007798286</v>
+        <v>1197250.4</v>
       </c>
       <c r="E14" t="n">
-        <v>49084.6359218683</v>
+        <v>88345.10000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>244856.249002227</v>
+        <v>638697.6</v>
       </c>
       <c r="G14" t="n">
-        <v>244639.068544879</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>43496.6131824886</v>
-      </c>
-      <c r="C15" t="n">
-        <v>592963.229548957</v>
-      </c>
-      <c r="D15" t="n">
-        <v>588141.211190155</v>
-      </c>
-      <c r="E15" t="n">
-        <v>53028.0728537458</v>
-      </c>
-      <c r="F15" t="n">
-        <v>277983.542768454</v>
-      </c>
-      <c r="G15" t="n">
-        <v>261951.613926757</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>46911.718728133</v>
-      </c>
-      <c r="C16" t="n">
-        <v>643563.104543766</v>
-      </c>
-      <c r="D16" t="n">
-        <v>644380.151914331</v>
-      </c>
-      <c r="E16" t="n">
-        <v>55626.3215706793</v>
-      </c>
-      <c r="F16" t="n">
-        <v>310653.963237863</v>
-      </c>
-      <c r="G16" t="n">
-        <v>277282.819735223</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>49922.3267613586</v>
-      </c>
-      <c r="C17" t="n">
-        <v>688858.218049283</v>
-      </c>
-      <c r="D17" t="n">
-        <v>685571.21848939</v>
-      </c>
-      <c r="E17" t="n">
-        <v>57774.6412645268</v>
-      </c>
-      <c r="F17" t="n">
-        <v>349744.650043795</v>
-      </c>
-      <c r="G17" t="n">
-        <v>281338.926740961</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>53782.9973903485</v>
-      </c>
-      <c r="C18" t="n">
-        <v>746395.059483517</v>
-      </c>
-      <c r="D18" t="n">
-        <v>742694.053654712</v>
-      </c>
-      <c r="E18" t="n">
-        <v>60139.196087384</v>
-      </c>
-      <c r="F18" t="n">
-        <v>390828.059989709</v>
-      </c>
-      <c r="G18" t="n">
-        <v>295427.803406424</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>59592.2510902632</v>
-      </c>
-      <c r="C19" t="n">
-        <v>832035.948559918</v>
-      </c>
-      <c r="D19" t="n">
-        <v>830945.699737374</v>
-      </c>
-      <c r="E19" t="n">
-        <v>62099.5439820457</v>
-      </c>
-      <c r="F19" t="n">
-        <v>438355.94736846</v>
-      </c>
-      <c r="G19" t="n">
-        <v>331580.457209411</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>65533.7426977278</v>
-      </c>
-      <c r="C20" t="n">
-        <v>919281.129066646</v>
-      </c>
-      <c r="D20" t="n">
-        <v>915243.45391614</v>
-      </c>
-      <c r="E20" t="n">
-        <v>64745.1561040139</v>
-      </c>
-      <c r="F20" t="n">
-        <v>489700.762579774</v>
-      </c>
-      <c r="G20" t="n">
-        <v>364835.210382857</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>70078</v>
-      </c>
-      <c r="C21" t="n">
-        <v>986515.202291903</v>
-      </c>
-      <c r="D21" t="n">
-        <v>983751.20256033</v>
-      </c>
-      <c r="E21" t="n">
-        <v>70473.5905931704</v>
-      </c>
-      <c r="F21" t="n">
-        <v>535370.99070492</v>
-      </c>
-      <c r="G21" t="n">
-        <v>380670.620993813</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>71828</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1013567</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1006363.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>78030.89999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>551973.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>383562.4</v>
+        <v>483164.5</v>
       </c>
     </row>
   </sheetData>
